--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_61.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_61.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,178 +488,190 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_14</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1270161290322581</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A', 'A/7', 'A/b7', 'A/6']]</t>
-        </is>
+          <t>isophonics_269</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_37</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D', 'D/5', 'D', 'D/5']]</t>
+          <t>[['A:min', 'E', 'A:min', 'E', 'A:min', 'E', 'A:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(84.787426, 87.427993)]</t>
+          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(90.564195, 93.919478)]</t>
+          <t>[('0:00:38.841000', '0:00:47.891000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
+          <t>[('0:00:45.580000', '0:00:59.100000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_69</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min/A', 'A:min'], ['A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(90.6, 101.18), (42.44, 44.36)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(28.14, 36.1), (83.1, 90.02)]</t>
+          <t>[('0:01:27.440000', '0:01:50.440000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:30.780000', '0:01:53.600000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_69</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(14.2, 18.8), (31.74, 33.88)]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(10.76, 23.6), (62.86, 68.74)]</t>
+          <t>[('0:01:36.660000', '0:01:46.300000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:01:34.060000', '0:01:45.580000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_14</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>isophonics_82</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>isophonics_162</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>0.171875</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F', 'C/3']]</t>
-        </is>
+      <c r="D5" t="n">
+        <v>0.2092198581560284</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'A']]</t>
+          <t>[['A', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(12.503707, 19.759943)]</t>
+          <t>[['A', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(43.926916, 50.765192)]</t>
+          <t>[('0:00:03.101913', '0:00:07.754783')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
+          <t>[('0:00:34.290634', '0:00:43.926916')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
         </is>
@@ -663,448 +680,438 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(20.56, 26.4)]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(67.76, 84.78)]</t>
+          <t>[('0:00:32.320000', '0:00:33.880000'), ('0:00:32.040000', '0:00:33.420000'), ('0:00:07.700000', '0:00:12.060000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:14.160000', '0:00:28.960000'), ('0:00:56.780000', '0:01:05.580000'), ('0:00:01.920000', '0:00:08.320000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_100</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['D:min', 'A:(3,5,b7,b9)', 'D:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(32.32, 33.88), (32.04, 33.42), (7.7, 12.06)]</t>
+          <t>[['A:min', 'E:(3,5,b7,b9)/A', 'A:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(12.02, 25.14), (49.08, 57.84), (1.44, 6.84)]</t>
+          <t>[('0:01:40.740000', '0:02:01.400000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:32.380000', '0:00:46.680000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(35.22, 42.42)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(103.42, 115.04)]</t>
+          <t>[('0:00:08.740000', '0:00:23.220000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:16.240000', '0:00:21.160000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_51</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_44</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(13.6, 17.78)]</t>
+          <t>[['A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'G#/C', 'G#:7', 'C#', 'A#:min', 'D#:7/A#', 'G#', 'C#/F', 'G#:7/D#', 'C#/F', 'G#:7', 'C#', 'C:dim7/C#', 'C#:7', 'F#', 'D#:min', 'G#:7/D#', 'C#', 'F#/A#', 'C#:7/G#', 'F#/A#', 'C#', 'F#', 'C:hdim7/D#', 'A#:min/C#', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'A:dim7/A#', 'A#:min', 'D#:min', 'A#:min/F', 'D#:min7/F#', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(3.44, 7.08)]</t>
+          <t>[('0:00:14.880000', '0:01:39.500000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:15.900000', '0:01:46.380000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_58</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['C:7', 'F', 'C']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(6.92, 13.46)]</t>
+          <t>[['G:7', 'C:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(2.98, 6.7)]</t>
+          <t>[('0:00:39.386636', '0:00:52.146870')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:06.100000', '0:00:12.860000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_5</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C:7', 'F:min']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(0.36, 5.0)]</t>
+          <t>[['E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(43.68, 45.8)]</t>
+          <t>[('0:02:22.140000', '0:02:27.860000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:09.162102', '0:00:15.791400')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_204</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_159</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(3.44, 7.08)]</t>
+          <t>[('0:00:43.100000', '0:00:47.740000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:47.340000', '0:00:52.740000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_105</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_116</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(4.16, 6.7)]</t>
+          <t>[('0:00:09.140000', '0:01:50.260000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:08.440000', '0:02:12.720000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(9.24, 17.72)]</t>
+          <t>[['C#:(3,5)', 'F:maj/A', 'A#:maj', 'F:maj/C', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(20.42, 23.5)]</t>
+          <t>[('0:01:00.680000', '0:01:06.800000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:00.620000', '0:01:06.360000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(51.62, 63.9)]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(24.64, 36.02)]</t>
+          <t>[('0:00:09.620000', '0:00:14.180000'), ('0:00:01.880000', '0:00:06.560000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:01:19.420000', '0:01:26.020000'), ('0:00:13.980000', '0:00:21.500000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
@@ -1113,90 +1120,50 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1405405405405405</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>isophonics_255</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.08684863523573201</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['A#:min', 'D#:min/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526)]</t>
+          <t>[['D:min', 'G:min/5', 'D:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[('0:00:30.240000', '0:00:38.500000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+          <t>[('0:00:27.789047', '0:00:31.109501')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_86</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_154</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(5.88, 21.16)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(9.24, 28.04)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
         </is>
       </c>
     </row>
